--- a/biology/Zoologie/André-Charles_Hollande/André-Charles_Hollande.xlsx
+++ b/biology/Zoologie/André-Charles_Hollande/André-Charles_Hollande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Charles_Hollande</t>
+          <t>André-Charles_Hollande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André-Charles Hollande, né le 29 janvier 1881 à Chambéry et mort le 31 juillet 1964[1], est un pharmacien, médecin, entomologiste et parasitologiste français[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André-Charles Hollande, né le 29 janvier 1881 à Chambéry et mort le 31 juillet 1964, est un pharmacien, médecin, entomologiste et parasitologiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9-Charles_Hollande</t>
+          <t>André-Charles_Hollande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie académique
-Il fut professeur à l'Université de Nancy puis à l'Université de Montpellier[5],[4].
-Vie familiale
-Il est le père d'André Hollande (1913-1998)[6].
+          <t>Vie académique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut professeur à l'Université de Nancy puis à l'Université de Montpellier,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>André-Charles_Hollande</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9-Charles_Hollande</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie familiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père d'André Hollande (1913-1998).
 </t>
         </is>
       </c>
